--- a/data/trans_orig/P36BPD05_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD05_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>160725</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>128534</v>
+        <v>130348</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>193387</v>
+        <v>192542</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3941328919421407</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3151932603438599</v>
+        <v>0.3196425203107387</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4742291241019796</v>
+        <v>0.4721567474976636</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>73</v>
@@ -762,19 +762,19 @@
         <v>130588</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>106074</v>
+        <v>105913</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>154392</v>
+        <v>156890</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3612044524523191</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2933985436904295</v>
+        <v>0.2929533031141235</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4270444855564697</v>
+        <v>0.4339545948446663</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>138</v>
@@ -783,19 +783,19 @@
         <v>291313</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>250158</v>
+        <v>253810</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>327897</v>
+        <v>328994</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3786586391867313</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3251648258071619</v>
+        <v>0.3299118306316097</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4262115782859907</v>
+        <v>0.4276385629599411</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>247068</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>214406</v>
+        <v>215251</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>279259</v>
+        <v>277445</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6058671080578594</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5257708758980204</v>
+        <v>0.5278432525023364</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6848067396561401</v>
+        <v>0.6803574796892612</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>133</v>
@@ -833,19 +833,19 @@
         <v>230947</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>207143</v>
+        <v>204645</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>255461</v>
+        <v>255622</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6387955475476809</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5729555144435307</v>
+        <v>0.5660454051553335</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7066014563095715</v>
+        <v>0.7070466968858764</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>240</v>
@@ -854,19 +854,19 @@
         <v>478015</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>441431</v>
+        <v>440334</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>519170</v>
+        <v>515518</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6213413608132687</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5737884217140095</v>
+        <v>0.5723614370400589</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6748351741928381</v>
+        <v>0.6700881693683901</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>187239</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>160801</v>
+        <v>160998</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>215630</v>
+        <v>216540</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3926254868835855</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3371864177346979</v>
+        <v>0.3376008303223444</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4521598188719885</v>
+        <v>0.4540677826168036</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>161</v>
@@ -979,19 +979,19 @@
         <v>177192</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>155366</v>
+        <v>154607</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>199002</v>
+        <v>198930</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3536175554856759</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.310060402698258</v>
+        <v>0.3085463692192348</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3971444543687319</v>
+        <v>0.3970008559464142</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>277</v>
@@ -1000,19 +1000,19 @@
         <v>364431</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>330490</v>
+        <v>327119</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>398335</v>
+        <v>403060</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3726390376642674</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3379335156642756</v>
+        <v>0.3344866652983168</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4073063670733414</v>
+        <v>0.4121382424508981</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>289651</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>261260</v>
+        <v>260350</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>316089</v>
+        <v>315892</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6073745131164143</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5478401811280115</v>
+        <v>0.5459322173831964</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6628135822653021</v>
+        <v>0.6623991696776556</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>299</v>
@@ -1050,19 +1050,19 @@
         <v>323891</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>302081</v>
+        <v>302153</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>345717</v>
+        <v>346476</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.646382444514324</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6028555456312681</v>
+        <v>0.602999144053586</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6899395973017418</v>
+        <v>0.6914536307807649</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>485</v>
@@ -1071,19 +1071,19 @@
         <v>613542</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>579638</v>
+        <v>574913</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>647483</v>
+        <v>650854</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6273609623357327</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5926936329266586</v>
+        <v>0.5878617575491019</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6620664843357243</v>
+        <v>0.6655133347016832</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>195341</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>170754</v>
+        <v>171763</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>220659</v>
+        <v>221207</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.314641931879814</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2750379493012743</v>
+        <v>0.2766634115188125</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3554214590127413</v>
+        <v>0.3563039843968881</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>245</v>
@@ -1196,19 +1196,19 @@
         <v>185149</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>167162</v>
+        <v>166263</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>205779</v>
+        <v>205852</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2976009713147222</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2686893361635409</v>
+        <v>0.2672440832021105</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3307602261858212</v>
+        <v>0.3308771142166759</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>412</v>
@@ -1217,19 +1217,19 @@
         <v>380491</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>347789</v>
+        <v>346054</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>411704</v>
+        <v>410849</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3061125235762826</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2798038609825037</v>
+        <v>0.2784072411736487</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3312244355199625</v>
+        <v>0.3305361606489698</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>425496</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>400178</v>
+        <v>399630</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>450083</v>
+        <v>449074</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6853580681201862</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.644578540987259</v>
+        <v>0.6436960156031118</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7249620506987258</v>
+        <v>0.7233365884811875</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>601</v>
@@ -1267,19 +1267,19 @@
         <v>436990</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>416360</v>
+        <v>416287</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>454977</v>
+        <v>455876</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7023990286852778</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6692397738141787</v>
+        <v>0.6691228857833242</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7313106638364592</v>
+        <v>0.7327559167978895</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>980</v>
@@ -1288,19 +1288,19 @@
         <v>862485</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>831272</v>
+        <v>832127</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>895187</v>
+        <v>896922</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6938874764237175</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6687755644800377</v>
+        <v>0.6694638393510303</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7201961390174964</v>
+        <v>0.7215927588263514</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>207172</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>182967</v>
+        <v>182120</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>235337</v>
+        <v>233855</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2960937751727782</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2614992329475019</v>
+        <v>0.2602895024692792</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3363484788739169</v>
+        <v>0.334230579994573</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>291</v>
@@ -1413,19 +1413,19 @@
         <v>195029</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>176948</v>
+        <v>176710</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>216644</v>
+        <v>215278</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2655183364556133</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2409024589216079</v>
+        <v>0.2405777454612316</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.294944517248484</v>
+        <v>0.2930849541443343</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>481</v>
@@ -1434,19 +1434,19 @@
         <v>402201</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>370376</v>
+        <v>371708</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>436677</v>
+        <v>435248</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2804346827670763</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2582445608184816</v>
+        <v>0.2591730606236782</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3044726644652223</v>
+        <v>0.30347634493076</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>492511</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>464346</v>
+        <v>465828</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>516716</v>
+        <v>517563</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7039062248272218</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6636515211260831</v>
+        <v>0.6657694200054268</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7385007670524982</v>
+        <v>0.7397104975307208</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>846</v>
@@ -1484,19 +1484,19 @@
         <v>539494</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>517879</v>
+        <v>519245</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>557575</v>
+        <v>557813</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7344816635443867</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7050554827515157</v>
+        <v>0.7069150458556663</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7590975410783918</v>
+        <v>0.7594222545387685</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1320</v>
@@ -1505,19 +1505,19 @@
         <v>1032005</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>997529</v>
+        <v>998958</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1063830</v>
+        <v>1062498</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7195653172329237</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6955273355347781</v>
+        <v>0.6965236550692401</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7417554391815183</v>
+        <v>0.7408269393763219</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>181367</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>160868</v>
+        <v>161583</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>203242</v>
+        <v>203238</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2993151978950548</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2654862763949124</v>
+        <v>0.2666653711166037</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3354164070436574</v>
+        <v>0.3354097061687183</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>232</v>
@@ -1630,19 +1630,19 @@
         <v>145946</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>127555</v>
+        <v>128882</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>161963</v>
+        <v>163249</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2412305426532132</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.210832715027819</v>
+        <v>0.2130254299868065</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2677041173895353</v>
+        <v>0.2698294579279952</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>430</v>
@@ -1651,19 +1651,19 @@
         <v>327313</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>303410</v>
+        <v>298832</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>355695</v>
+        <v>355730</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2702952096846613</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2505564439810152</v>
+        <v>0.2467754821420119</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.293733226978624</v>
+        <v>0.2937618618247094</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>424572</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>402697</v>
+        <v>402701</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>445071</v>
+        <v>444356</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.700684802104945</v>
+        <v>0.7006848021049451</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6645835929563426</v>
+        <v>0.6645902938312814</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7345137236050877</v>
+        <v>0.7333346288833964</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>764</v>
@@ -1701,19 +1701,19 @@
         <v>459061</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>443044</v>
+        <v>441758</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>477452</v>
+        <v>476125</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.758769457346787</v>
+        <v>0.7587694573467869</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7322958826104649</v>
+        <v>0.7301705420720048</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.789167284972181</v>
+        <v>0.7869745700131938</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1226</v>
@@ -1722,19 +1722,19 @@
         <v>883633</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>855251</v>
+        <v>855216</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>907536</v>
+        <v>912114</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7297047903153386</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7062667730213762</v>
+        <v>0.7062381381752907</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7494435560189849</v>
+        <v>0.7532245178579878</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>118673</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>103309</v>
+        <v>102712</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>133773</v>
+        <v>133522</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2932423233582137</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2552762621633829</v>
+        <v>0.2538019689762971</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3305539281148754</v>
+        <v>0.3299323498015565</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>185</v>
@@ -1847,19 +1847,19 @@
         <v>104049</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>90581</v>
+        <v>91170</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>117362</v>
+        <v>118184</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2375415027260508</v>
+        <v>0.2375415027260507</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2067931666349146</v>
+        <v>0.2081371991183552</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2679341597296511</v>
+        <v>0.2698112122049768</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>350</v>
@@ -1868,19 +1868,19 @@
         <v>222723</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>202719</v>
+        <v>203967</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>243973</v>
+        <v>242843</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2642903580696799</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.240553171765499</v>
+        <v>0.2420346501054548</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.289506467165443</v>
+        <v>0.2881654530206623</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>286021</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>270921</v>
+        <v>271172</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>301385</v>
+        <v>301982</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7067576766417862</v>
+        <v>0.7067576766417861</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6694460718851252</v>
+        <v>0.6700676501984446</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7447237378366169</v>
+        <v>0.7461980310237032</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>640</v>
@@ -1918,19 +1918,19 @@
         <v>333977</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>320664</v>
+        <v>319842</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>347445</v>
+        <v>346856</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7624584972739493</v>
+        <v>0.7624584972739492</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.732065840270349</v>
+        <v>0.7301887877950231</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7932068333650859</v>
+        <v>0.7918628008816447</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1042</v>
@@ -1939,19 +1939,19 @@
         <v>619997</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>598747</v>
+        <v>599877</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>640001</v>
+        <v>638753</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7357096419303201</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7104935328345569</v>
+        <v>0.7118345469793379</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.759446828234501</v>
+        <v>0.7579653498945453</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>85429</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>72950</v>
+        <v>73506</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>98214</v>
+        <v>100144</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2769138379826009</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2364631620641235</v>
+        <v>0.2382664462595246</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3183545376300823</v>
+        <v>0.3246097780818651</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>176</v>
@@ -2064,19 +2064,19 @@
         <v>99550</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>87162</v>
+        <v>87690</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>114964</v>
+        <v>113457</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2152378668052369</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1884547810284249</v>
+        <v>0.1895951175379143</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2485649134854696</v>
+        <v>0.2453079512763925</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>297</v>
@@ -2085,19 +2085,19 @@
         <v>184979</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>166380</v>
+        <v>165634</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>205227</v>
+        <v>202546</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2399161658381599</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2157940258570867</v>
+        <v>0.2148258765132536</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2661771778293786</v>
+        <v>0.2627003145439338</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>223076</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>210291</v>
+        <v>208361</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>235555</v>
+        <v>234999</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7230861620173991</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6816454623699177</v>
+        <v>0.6753902219181348</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7635368379358765</v>
+        <v>0.7617335537404754</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>701</v>
@@ -2135,19 +2135,19 @@
         <v>362960</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>347546</v>
+        <v>349053</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>375348</v>
+        <v>374820</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7847621331947632</v>
+        <v>0.7847621331947631</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7514350865145305</v>
+        <v>0.7546920487236074</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8115452189715752</v>
+        <v>0.8104048824620856</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1035</v>
@@ -2156,19 +2156,19 @@
         <v>586036</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>565788</v>
+        <v>568469</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>604635</v>
+        <v>605381</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7600838341618401</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7338228221706214</v>
+        <v>0.7372996854560663</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7842059741429133</v>
+        <v>0.7851741234867463</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>1135946</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1075529</v>
+        <v>1078522</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1201682</v>
+        <v>1198805</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.3223145644577426</v>
+        <v>0.3223145644577428</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3051715271441792</v>
+        <v>0.3060210061680099</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3409664854172053</v>
+        <v>0.3401500935635021</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1363</v>
@@ -2281,19 +2281,19 @@
         <v>1037504</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>989324</v>
+        <v>981494</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1091456</v>
+        <v>1085153</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.278537649649796</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2656030104943282</v>
+        <v>0.263500848787296</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2930220971062326</v>
+        <v>0.2913299570289967</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2385</v>
@@ -2302,19 +2302,19 @@
         <v>2173450</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2092328</v>
+        <v>2089622</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2255871</v>
+        <v>2248336</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2998207613619225</v>
+        <v>0.2998207613619224</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2886302232075397</v>
+        <v>0.2882569659572337</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3111904958041797</v>
+        <v>0.3101510608486134</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>2388395</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2322659</v>
+        <v>2325536</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2448812</v>
+        <v>2445819</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6776854355422572</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.659033514582795</v>
+        <v>0.6598499064364979</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6948284728558211</v>
+        <v>0.6939789938319904</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3984</v>
@@ -2352,19 +2352,19 @@
         <v>2687320</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2633368</v>
+        <v>2639671</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2735500</v>
+        <v>2743330</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.721462350350204</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7069779028937675</v>
+        <v>0.7086700429710036</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7343969895056718</v>
+        <v>0.736499151212704</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6328</v>
@@ -2373,19 +2373,19 @@
         <v>5075715</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4993294</v>
+        <v>5000829</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5156837</v>
+        <v>5159543</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7001792386380775</v>
+        <v>0.7001792386380777</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6888095041958199</v>
+        <v>0.6898489391513866</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7113697767924602</v>
+        <v>0.7117430340427664</v>
       </c>
     </row>
     <row r="27">
